--- a/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00672296660576</v>
+        <v>1.027136108155939</v>
       </c>
       <c r="D2">
-        <v>1.025188028062616</v>
+        <v>1.042732534406307</v>
       </c>
       <c r="E2">
-        <v>1.011533229156602</v>
+        <v>1.029381799171059</v>
       </c>
       <c r="F2">
-        <v>1.025737382739194</v>
+        <v>1.044281613710947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044209349003135</v>
+        <v>1.054024125574748</v>
       </c>
       <c r="J2">
-        <v>1.028704437595228</v>
+        <v>1.048534405892446</v>
       </c>
       <c r="K2">
-        <v>1.036307261564724</v>
+        <v>1.053626986715598</v>
       </c>
       <c r="L2">
-        <v>1.022834192528026</v>
+        <v>1.040446429794189</v>
       </c>
       <c r="M2">
-        <v>1.036849431810491</v>
+        <v>1.055156671532741</v>
       </c>
       <c r="N2">
-        <v>1.030165315890679</v>
+        <v>1.050023445017391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014508220665139</v>
+        <v>1.033345741890003</v>
       </c>
       <c r="D3">
-        <v>1.031360699775252</v>
+        <v>1.047739573999942</v>
       </c>
       <c r="E3">
-        <v>1.018054620225875</v>
+        <v>1.034530454361615</v>
       </c>
       <c r="F3">
-        <v>1.032809816105039</v>
+        <v>1.050059642732116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04663955629667</v>
+        <v>1.056319238356803</v>
       </c>
       <c r="J3">
-        <v>1.034611041636596</v>
+        <v>1.052966878101079</v>
       </c>
       <c r="K3">
-        <v>1.041607442939852</v>
+        <v>1.057795991776898</v>
       </c>
       <c r="L3">
-        <v>1.028461585266716</v>
+        <v>1.044739782343187</v>
       </c>
       <c r="M3">
-        <v>1.043039418883642</v>
+        <v>1.060089692896194</v>
       </c>
       <c r="N3">
-        <v>1.036080307987266</v>
+        <v>1.054462211844972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019391758084877</v>
+        <v>1.037262481964598</v>
       </c>
       <c r="D4">
-        <v>1.035235208276765</v>
+        <v>1.050900580799333</v>
       </c>
       <c r="E4">
-        <v>1.022151172435107</v>
+        <v>1.03778319484099</v>
       </c>
       <c r="F4">
-        <v>1.037252731771761</v>
+        <v>1.053710210054805</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04815133567387</v>
+        <v>1.057756875396678</v>
       </c>
       <c r="J4">
-        <v>1.038312099963911</v>
+        <v>1.05575876105523</v>
       </c>
       <c r="K4">
-        <v>1.044926190423378</v>
+        <v>1.060421170901025</v>
       </c>
       <c r="L4">
-        <v>1.031989405687694</v>
+        <v>1.047446032190761</v>
       </c>
       <c r="M4">
-        <v>1.046921414555211</v>
+        <v>1.063200895742933</v>
       </c>
       <c r="N4">
-        <v>1.039786622241922</v>
+        <v>1.05725805959315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021410049700616</v>
+        <v>1.03888595520641</v>
       </c>
       <c r="D5">
-        <v>1.03683697095955</v>
+        <v>1.052211410255481</v>
       </c>
       <c r="E5">
-        <v>1.023845509401714</v>
+        <v>1.039132629263957</v>
       </c>
       <c r="F5">
-        <v>1.039090382946575</v>
+        <v>1.055224753708692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048773029634924</v>
+        <v>1.058350322724495</v>
       </c>
       <c r="J5">
-        <v>1.039840649375467</v>
+        <v>1.056915000002552</v>
       </c>
       <c r="K5">
-        <v>1.046296261321497</v>
+        <v>1.0615081796434</v>
       </c>
       <c r="L5">
-        <v>1.033446807166881</v>
+        <v>1.048567278491437</v>
       </c>
       <c r="M5">
-        <v>1.048525484432905</v>
+        <v>1.064490346779327</v>
       </c>
       <c r="N5">
-        <v>1.04131734236897</v>
+        <v>1.058415940532401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021746950658251</v>
+        <v>1.039157218907319</v>
       </c>
       <c r="D6">
-        <v>1.037104368772946</v>
+        <v>1.05243046840663</v>
       </c>
       <c r="E6">
-        <v>1.02412840797001</v>
+        <v>1.039358172170882</v>
       </c>
       <c r="F6">
-        <v>1.039397213874317</v>
+        <v>1.055477897141793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048876620843039</v>
+        <v>1.058449335735454</v>
       </c>
       <c r="J6">
-        <v>1.040095737408286</v>
+        <v>1.057108134938104</v>
       </c>
       <c r="K6">
-        <v>1.046524867110893</v>
+        <v>1.061689739040609</v>
       </c>
       <c r="L6">
-        <v>1.033690045065173</v>
+        <v>1.048754595905182</v>
       </c>
       <c r="M6">
-        <v>1.048793221700493</v>
+        <v>1.064705789994679</v>
       </c>
       <c r="N6">
-        <v>1.041572792656053</v>
+        <v>1.058609349741714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019418860450233</v>
+        <v>1.03728426431848</v>
       </c>
       <c r="D7">
-        <v>1.0352567155551</v>
+        <v>1.050918166067221</v>
       </c>
       <c r="E7">
-        <v>1.022173919620501</v>
+        <v>1.037801295771726</v>
       </c>
       <c r="F7">
-        <v>1.037277402772462</v>
+        <v>1.053730525430566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04815969637505</v>
+        <v>1.057764847494789</v>
       </c>
       <c r="J7">
-        <v>1.038332630105823</v>
+        <v>1.055774278423338</v>
       </c>
       <c r="K7">
-        <v>1.044944594359293</v>
+        <v>1.060435759929898</v>
       </c>
       <c r="L7">
-        <v>1.032008978663672</v>
+        <v>1.047461078080745</v>
       </c>
       <c r="M7">
-        <v>1.046942955902893</v>
+        <v>1.063218197063122</v>
       </c>
       <c r="N7">
-        <v>1.03980718153899</v>
+        <v>1.057273598997702</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009387268581996</v>
+        <v>1.029256364029437</v>
       </c>
       <c r="D8">
-        <v>1.027299860891614</v>
+        <v>1.044441535526476</v>
       </c>
       <c r="E8">
-        <v>1.013763715236054</v>
+        <v>1.031138649705914</v>
       </c>
       <c r="F8">
-        <v>1.028156298615173</v>
+        <v>1.046253188208648</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04504365140377</v>
+        <v>1.054809860759863</v>
       </c>
       <c r="J8">
-        <v>1.030726626767648</v>
+        <v>1.050048649120128</v>
       </c>
       <c r="K8">
-        <v>1.038122312222597</v>
+        <v>1.055051375354177</v>
       </c>
       <c r="L8">
-        <v>1.02476042076888</v>
+        <v>1.041912721927184</v>
       </c>
       <c r="M8">
-        <v>1.03896791744639</v>
+        <v>1.056841063387528</v>
       </c>
       <c r="N8">
-        <v>1.032190376803655</v>
+        <v>1.051539838644142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9904238029042082</v>
+        <v>1.014279240984641</v>
       </c>
       <c r="D9">
-        <v>1.012284906279134</v>
+        <v>1.032384529608768</v>
       </c>
       <c r="E9">
-        <v>0.9979178406623118</v>
+        <v>1.018753819933012</v>
       </c>
       <c r="F9">
-        <v>1.0109724071038</v>
+        <v>1.032354870453501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039053688765846</v>
+        <v>1.049218642960475</v>
       </c>
       <c r="J9">
-        <v>1.016319313151789</v>
+        <v>1.039337646637004</v>
       </c>
       <c r="K9">
-        <v>1.025181764915545</v>
+        <v>1.044973166355513</v>
       </c>
       <c r="L9">
-        <v>1.011044790021367</v>
+        <v>1.031549784543557</v>
       </c>
       <c r="M9">
-        <v>1.023889938145125</v>
+        <v>1.044943950764079</v>
       </c>
       <c r="N9">
-        <v>1.017762603149919</v>
+        <v>1.040813625308923</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9767469930229005</v>
+        <v>1.00365138411947</v>
       </c>
       <c r="D10">
-        <v>1.001483543085722</v>
+        <v>1.023851791183694</v>
       </c>
       <c r="E10">
-        <v>0.9865338331773164</v>
+        <v>1.010001283906043</v>
       </c>
       <c r="F10">
-        <v>0.9986275880327353</v>
+        <v>1.022532146587727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034670997694614</v>
+        <v>1.045201168379557</v>
       </c>
       <c r="J10">
-        <v>1.00591455822684</v>
+        <v>1.031720876692055</v>
       </c>
       <c r="K10">
-        <v>1.015826063266895</v>
+        <v>1.037803346652998</v>
       </c>
       <c r="L10">
-        <v>1.001150555798244</v>
+        <v>1.024192279883784</v>
       </c>
       <c r="M10">
-        <v>1.013021666092625</v>
+        <v>1.03650615433155</v>
       </c>
       <c r="N10">
-        <v>1.007343072279534</v>
+        <v>1.033186038676996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705343730908285</v>
+        <v>0.9988755183887938</v>
       </c>
       <c r="D11">
-        <v>0.9965861735757963</v>
+        <v>1.020024186600959</v>
       </c>
       <c r="E11">
-        <v>0.9813754565796775</v>
+        <v>1.006077900316358</v>
       </c>
       <c r="F11">
-        <v>0.9930338226126746</v>
+        <v>1.018128614516939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032666653938181</v>
+        <v>1.043384778479798</v>
       </c>
       <c r="J11">
-        <v>1.001186493616154</v>
+        <v>1.028295152048877</v>
       </c>
       <c r="K11">
-        <v>1.011572758106742</v>
+        <v>1.034578104443398</v>
       </c>
       <c r="L11">
-        <v>0.9966573641508775</v>
+        <v>1.020886099408163</v>
       </c>
       <c r="M11">
-        <v>1.008088317518554</v>
+        <v>1.032716562509645</v>
       </c>
       <c r="N11">
-        <v>1.002608293274785</v>
+        <v>1.029755449111889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9681785888704075</v>
+        <v>0.9970733768686049</v>
       </c>
       <c r="D12">
-        <v>0.9947307344212512</v>
+        <v>1.018581005530031</v>
       </c>
       <c r="E12">
-        <v>0.979421566193853</v>
+        <v>1.004599022300635</v>
       </c>
       <c r="F12">
-        <v>0.9909150004341882</v>
+        <v>1.016468658261567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031904718097926</v>
+        <v>1.042697790166821</v>
       </c>
       <c r="J12">
-        <v>0.9993935303747284</v>
+        <v>1.027002115178896</v>
       </c>
       <c r="K12">
-        <v>1.009959586334753</v>
+        <v>1.033360675603854</v>
       </c>
       <c r="L12">
-        <v>0.9949539290260954</v>
+        <v>1.019638639542395</v>
       </c>
       <c r="M12">
-        <v>1.00621834933117</v>
+        <v>1.031287002878751</v>
       </c>
       <c r="N12">
-        <v>1.000812783819901</v>
+        <v>1.028460575981239</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9686861704137716</v>
+        <v>0.9974612522913173</v>
       </c>
       <c r="D13">
-        <v>0.9951304337877678</v>
+        <v>1.018891568224033</v>
       </c>
       <c r="E13">
-        <v>0.9798424550257618</v>
+        <v>1.004917248063446</v>
       </c>
       <c r="F13">
-        <v>0.9913714182219009</v>
+        <v>1.016825853113229</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032068969735588</v>
+        <v>1.042845721190481</v>
       </c>
       <c r="J13">
-        <v>0.9997798479304012</v>
+        <v>1.027280430826988</v>
       </c>
       <c r="K13">
-        <v>1.010307175717158</v>
+        <v>1.03362271983779</v>
       </c>
       <c r="L13">
-        <v>0.9953209353368924</v>
+        <v>1.019907124323223</v>
       </c>
       <c r="M13">
-        <v>1.006621219928489</v>
+        <v>1.031594666843333</v>
       </c>
       <c r="N13">
-        <v>1.001199649990814</v>
+        <v>1.028739286869475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9703406536220814</v>
+        <v>0.9987271400692532</v>
       </c>
       <c r="D14">
-        <v>0.9964335640344091</v>
+        <v>1.019905339199957</v>
       </c>
       <c r="E14">
-        <v>0.9812147408714647</v>
+        <v>1.00595610483122</v>
       </c>
       <c r="F14">
-        <v>0.9928595409505531</v>
+        <v>1.017991908044992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032604036616785</v>
+        <v>1.043328247414812</v>
       </c>
       <c r="J14">
-        <v>1.001039057054584</v>
+        <v>1.028188697432075</v>
       </c>
       <c r="K14">
-        <v>1.011440110604245</v>
+        <v>1.034477875765336</v>
       </c>
       <c r="L14">
-        <v>0.9965172800527385</v>
+        <v>1.020783387784008</v>
       </c>
       <c r="M14">
-        <v>1.007934531475911</v>
+        <v>1.032598851428327</v>
       </c>
       <c r="N14">
-        <v>1.002460647336386</v>
+        <v>1.029648843317321</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713535106304024</v>
+        <v>0.9995032975687014</v>
       </c>
       <c r="D15">
-        <v>0.9972315458426343</v>
+        <v>1.020527069513245</v>
       </c>
       <c r="E15">
-        <v>0.9820551265322258</v>
+        <v>1.006593274447456</v>
       </c>
       <c r="F15">
-        <v>0.9937708625659992</v>
+        <v>1.01870708018165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0329313531644</v>
+        <v>1.043623893737263</v>
       </c>
       <c r="J15">
-        <v>1.001809921512186</v>
+        <v>1.028745540491268</v>
       </c>
       <c r="K15">
-        <v>1.012133641552432</v>
+        <v>1.035002149674126</v>
       </c>
       <c r="L15">
-        <v>0.9972497213930435</v>
+        <v>1.021320670594349</v>
       </c>
       <c r="M15">
-        <v>1.008738628318123</v>
+        <v>1.033214608184035</v>
       </c>
       <c r="N15">
-        <v>1.003232606509937</v>
+        <v>1.030206477157528</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9771528144495142</v>
+        <v>1.003964508549692</v>
       </c>
       <c r="D16">
-        <v>1.001803657308239</v>
+        <v>1.024102894581352</v>
       </c>
       <c r="E16">
-        <v>0.9868710701617935</v>
+        <v>1.010258728646878</v>
       </c>
       <c r="F16">
-        <v>0.9989932878260762</v>
+        <v>1.022821086592971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03480165673965</v>
+        <v>1.045320034821927</v>
       </c>
       <c r="J16">
-        <v>1.006223381328676</v>
+        <v>1.031945425960157</v>
       </c>
       <c r="K16">
-        <v>1.016103840113023</v>
+        <v>1.038014744935395</v>
       </c>
       <c r="L16">
-        <v>1.001444099473312</v>
+        <v>1.024409055356629</v>
       </c>
       <c r="M16">
-        <v>1.013344011322256</v>
+        <v>1.036754666974117</v>
       </c>
       <c r="N16">
-        <v>1.007652333945598</v>
+        <v>1.033410906830815</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9807098139970961</v>
+        <v>1.006714964950648</v>
       </c>
       <c r="D17">
-        <v>1.004610488741906</v>
+        <v>1.026309344816713</v>
       </c>
       <c r="E17">
-        <v>0.9898283901225542</v>
+        <v>1.012521218999832</v>
       </c>
       <c r="F17">
-        <v>1.002200201929449</v>
+        <v>1.025360313637239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035945365865704</v>
+        <v>1.046362903838561</v>
       </c>
       <c r="J17">
-        <v>1.008930014785397</v>
+        <v>1.033917520381827</v>
       </c>
       <c r="K17">
-        <v>1.018538159439269</v>
+        <v>1.039871282354873</v>
       </c>
       <c r="L17">
-        <v>1.004017146392994</v>
+        <v>1.026313210813823</v>
       </c>
       <c r="M17">
-        <v>1.01616976330139</v>
+        <v>1.038937830707747</v>
       </c>
       <c r="N17">
-        <v>1.010362811132282</v>
+        <v>1.035385801852766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9827568609900532</v>
+        <v>1.008302626044306</v>
       </c>
       <c r="D18">
-        <v>1.006226650495389</v>
+        <v>1.027583616787838</v>
       </c>
       <c r="E18">
-        <v>0.9915315024431247</v>
+        <v>1.013828121973331</v>
       </c>
       <c r="F18">
-        <v>1.004047053656187</v>
+        <v>1.026827031813407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036602291136895</v>
+        <v>1.046963837279057</v>
       </c>
       <c r="J18">
-        <v>1.010487502037684</v>
+        <v>1.035055598454457</v>
       </c>
       <c r="K18">
-        <v>1.019938762504201</v>
+        <v>1.040942621574712</v>
       </c>
       <c r="L18">
-        <v>1.005498032009687</v>
+        <v>1.027412357930092</v>
       </c>
       <c r="M18">
-        <v>1.01779629343803</v>
+        <v>1.040198223589295</v>
       </c>
       <c r="N18">
-        <v>1.011922510195114</v>
+        <v>1.036525496126799</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9834502808241491</v>
+        <v>1.00884121471456</v>
       </c>
       <c r="D19">
-        <v>1.006774246536311</v>
+        <v>1.028015996684141</v>
       </c>
       <c r="E19">
-        <v>0.9921086115093651</v>
+        <v>1.014271619501986</v>
       </c>
       <c r="F19">
-        <v>1.004672869757374</v>
+        <v>1.0273247568248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036824598722685</v>
+        <v>1.047167514541978</v>
       </c>
       <c r="J19">
-        <v>1.011015053702503</v>
+        <v>1.03544162261596</v>
       </c>
       <c r="K19">
-        <v>1.020413141631761</v>
+        <v>1.041305999324184</v>
       </c>
       <c r="L19">
-        <v>1.005999682002761</v>
+        <v>1.027785223545699</v>
       </c>
       <c r="M19">
-        <v>1.018347314710707</v>
+        <v>1.040625821719587</v>
       </c>
       <c r="N19">
-        <v>1.012450811043808</v>
+        <v>1.036912068486889</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9803310762857753</v>
+        <v>1.006421601581545</v>
       </c>
       <c r="D20">
-        <v>1.004311538018244</v>
+        <v>1.026073938762715</v>
       </c>
       <c r="E20">
-        <v>0.9895133802250896</v>
+        <v>1.012279806392741</v>
       </c>
       <c r="F20">
-        <v>1.001858605789004</v>
+        <v>1.025089376833638</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035823719376711</v>
+        <v>1.046251779831092</v>
       </c>
       <c r="J20">
-        <v>1.008641838523218</v>
+        <v>1.033707206033894</v>
       </c>
       <c r="K20">
-        <v>1.01827899554219</v>
+        <v>1.03967329688166</v>
       </c>
       <c r="L20">
-        <v>1.00374316504161</v>
+        <v>1.026110113066768</v>
       </c>
       <c r="M20">
-        <v>1.015868852395088</v>
+        <v>1.03870495396403</v>
       </c>
       <c r="N20">
-        <v>1.010074225626757</v>
+        <v>1.035175188834337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698548178674075</v>
+        <v>0.9983551628178718</v>
       </c>
       <c r="D21">
-        <v>0.9960508560617783</v>
+        <v>1.01960741331578</v>
       </c>
       <c r="E21">
-        <v>0.9808117114330694</v>
+        <v>1.005650795380964</v>
       </c>
       <c r="F21">
-        <v>0.9924224916587306</v>
+        <v>1.01764921908281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032446966373303</v>
+        <v>1.043186501524875</v>
       </c>
       <c r="J21">
-        <v>1.000669294543927</v>
+        <v>1.027921815333622</v>
       </c>
       <c r="K21">
-        <v>1.011107434435955</v>
+        <v>1.034226601149162</v>
       </c>
       <c r="L21">
-        <v>0.9961659645964831</v>
+        <v>1.020525896755009</v>
       </c>
       <c r="M21">
-        <v>1.007548858507462</v>
+        <v>1.032303762533831</v>
       </c>
       <c r="N21">
-        <v>1.002090359720552</v>
+        <v>1.029381582215676</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9629867228001312</v>
+        <v>0.9931193049537546</v>
       </c>
       <c r="D22">
-        <v>0.990644841927665</v>
+        <v>1.015416773271926</v>
       </c>
       <c r="E22">
-        <v>0.9751196266224531</v>
+        <v>1.001357280935603</v>
       </c>
       <c r="F22">
-        <v>0.9862498833038795</v>
+        <v>1.012829788816502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030222149456889</v>
+        <v>1.041187638134471</v>
       </c>
       <c r="J22">
-        <v>0.9954420321062927</v>
+        <v>1.024164497720928</v>
       </c>
       <c r="K22">
-        <v>1.006403932638596</v>
+        <v>1.030688885036836</v>
       </c>
       <c r="L22">
-        <v>0.9912006238276621</v>
+        <v>1.016901897692513</v>
       </c>
       <c r="M22">
-        <v>1.002098744152535</v>
+        <v>1.02815129882922</v>
       </c>
       <c r="N22">
-        <v>0.9968556739706809</v>
+        <v>1.025618928781001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9666559694317391</v>
+        <v>0.9959112319778141</v>
       </c>
       <c r="D23">
-        <v>0.9935319915976689</v>
+        <v>1.017650680720719</v>
       </c>
       <c r="E23">
-        <v>0.9781593342070477</v>
+        <v>1.003645802325563</v>
       </c>
       <c r="F23">
-        <v>0.9895462150517639</v>
+        <v>1.015398693918289</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031411735792422</v>
+        <v>1.042254335733753</v>
       </c>
       <c r="J23">
-        <v>0.9982346692631181</v>
+        <v>1.02616818480989</v>
       </c>
       <c r="K23">
-        <v>1.008916868486857</v>
+        <v>1.03257549206131</v>
       </c>
       <c r="L23">
-        <v>0.9938530668053649</v>
+        <v>1.0188342337246</v>
       </c>
       <c r="M23">
-        <v>1.005009959824083</v>
+        <v>1.030365255390056</v>
       </c>
       <c r="N23">
-        <v>0.9996522769925886</v>
+        <v>1.027625461335456</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9805022967944622</v>
+        <v>1.006554211112099</v>
       </c>
       <c r="D24">
-        <v>1.00444668568682</v>
+        <v>1.026180347803938</v>
       </c>
       <c r="E24">
-        <v>0.9896557868840883</v>
+        <v>1.012388929708439</v>
       </c>
       <c r="F24">
-        <v>1.002013031304968</v>
+        <v>1.025211845793511</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03587871754604</v>
+        <v>1.046302014657667</v>
       </c>
       <c r="J24">
-        <v>1.008772118385872</v>
+        <v>1.033802275667843</v>
       </c>
       <c r="K24">
-        <v>1.018396159960325</v>
+        <v>1.039762793584214</v>
       </c>
       <c r="L24">
-        <v>1.003867026780348</v>
+        <v>1.026201919682336</v>
       </c>
       <c r="M24">
-        <v>1.016004887840714</v>
+        <v>1.038810221032469</v>
       </c>
       <c r="N24">
-        <v>1.010204690501759</v>
+        <v>1.035270393478069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.995494965852209</v>
+        <v>1.018257877107952</v>
       </c>
       <c r="D25">
-        <v>1.016296204549543</v>
+        <v>1.035583911866794</v>
       </c>
       <c r="E25">
-        <v>1.00214843165002</v>
+        <v>1.022038076338391</v>
       </c>
       <c r="F25">
-        <v>1.015560112320774</v>
+        <v>1.036040490001344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040666533459646</v>
+        <v>1.050712721978969</v>
       </c>
       <c r="J25">
-        <v>1.020174899385022</v>
+        <v>1.042186035499065</v>
       </c>
       <c r="K25">
-        <v>1.028646702479745</v>
+        <v>1.047653851438356</v>
       </c>
       <c r="L25">
-        <v>1.014713487285184</v>
+        <v>1.034303647876502</v>
       </c>
       <c r="M25">
-        <v>1.027921585910359</v>
+        <v>1.048103948282209</v>
       </c>
       <c r="N25">
-        <v>1.021623664757846</v>
+        <v>1.043666059209883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027136108155939</v>
+        <v>1.013898556071799</v>
       </c>
       <c r="D2">
-        <v>1.042732534406307</v>
+        <v>1.031129697633498</v>
       </c>
       <c r="E2">
-        <v>1.029381799171059</v>
+        <v>1.018356552932998</v>
       </c>
       <c r="F2">
-        <v>1.044281613710947</v>
+        <v>1.035139685067811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054024125574748</v>
+        <v>1.04789469777134</v>
       </c>
       <c r="J2">
-        <v>1.048534405892446</v>
+        <v>1.035671364249485</v>
       </c>
       <c r="K2">
-        <v>1.053626986715598</v>
+        <v>1.042171734679089</v>
       </c>
       <c r="L2">
-        <v>1.040446429794189</v>
+        <v>1.029565940861209</v>
       </c>
       <c r="M2">
-        <v>1.055156671532741</v>
+        <v>1.046130248762071</v>
       </c>
       <c r="N2">
-        <v>1.050023445017391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015480269775552</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045081373794953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033345741890003</v>
+        <v>1.017980981942486</v>
       </c>
       <c r="D3">
-        <v>1.047739573999942</v>
+        <v>1.03402530379589</v>
       </c>
       <c r="E3">
-        <v>1.034530454361615</v>
+        <v>1.021607087218336</v>
       </c>
       <c r="F3">
-        <v>1.050059642732116</v>
+        <v>1.038080757025857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056319238356803</v>
+        <v>1.048996377436949</v>
       </c>
       <c r="J3">
-        <v>1.052966878101079</v>
+        <v>1.037993186838417</v>
       </c>
       <c r="K3">
-        <v>1.057795991776898</v>
+        <v>1.044240575455729</v>
       </c>
       <c r="L3">
-        <v>1.044739782343187</v>
+        <v>1.031970768821767</v>
       </c>
       <c r="M3">
-        <v>1.060089692896194</v>
+        <v>1.048248513447873</v>
       </c>
       <c r="N3">
-        <v>1.054462211844972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016281920371704</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046757825787522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037262481964598</v>
+        <v>1.020572989328335</v>
       </c>
       <c r="D4">
-        <v>1.050900580799333</v>
+        <v>1.03586707524776</v>
       </c>
       <c r="E4">
-        <v>1.03778319484099</v>
+        <v>1.023676372261395</v>
       </c>
       <c r="F4">
-        <v>1.053710210054805</v>
+        <v>1.039955193281857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057756875396678</v>
+        <v>1.049687503560559</v>
       </c>
       <c r="J4">
-        <v>1.05575876105523</v>
+        <v>1.039464685005645</v>
       </c>
       <c r="K4">
-        <v>1.060421170901025</v>
+        <v>1.045551061984947</v>
       </c>
       <c r="L4">
-        <v>1.047446032190761</v>
+        <v>1.033497201495761</v>
       </c>
       <c r="M4">
-        <v>1.063200895742933</v>
+        <v>1.049594172699229</v>
       </c>
       <c r="N4">
-        <v>1.05725805959315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016789587564078</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047822814951378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03888595520641</v>
+        <v>1.021651164431742</v>
       </c>
       <c r="D5">
-        <v>1.052211410255481</v>
+        <v>1.036633926441916</v>
       </c>
       <c r="E5">
-        <v>1.039132629263957</v>
+        <v>1.02453838842023</v>
       </c>
       <c r="F5">
-        <v>1.055224753708692</v>
+        <v>1.040736543831019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058350322724495</v>
+        <v>1.049972947186704</v>
       </c>
       <c r="J5">
-        <v>1.056915000002552</v>
+        <v>1.040076098644007</v>
       </c>
       <c r="K5">
-        <v>1.0615081796434</v>
+        <v>1.046095402681648</v>
       </c>
       <c r="L5">
-        <v>1.048567278491437</v>
+        <v>1.034132000670097</v>
       </c>
       <c r="M5">
-        <v>1.064490346779327</v>
+        <v>1.050154055951257</v>
       </c>
       <c r="N5">
-        <v>1.058415940532401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017000426494193</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048265920431433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039157218907319</v>
+        <v>1.021831530540891</v>
       </c>
       <c r="D6">
-        <v>1.05243046840663</v>
+        <v>1.036762254193413</v>
       </c>
       <c r="E6">
-        <v>1.039358172170882</v>
+        <v>1.024682667462159</v>
       </c>
       <c r="F6">
-        <v>1.055477897141793</v>
+        <v>1.040867350794466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058449335735454</v>
+        <v>1.050020577773751</v>
       </c>
       <c r="J6">
-        <v>1.057108134938104</v>
+        <v>1.040178340533666</v>
       </c>
       <c r="K6">
-        <v>1.061689739040609</v>
+        <v>1.046186418128884</v>
       </c>
       <c r="L6">
-        <v>1.048754595905182</v>
+        <v>1.034238186106136</v>
       </c>
       <c r="M6">
-        <v>1.064705789994679</v>
+        <v>1.050247725160802</v>
       </c>
       <c r="N6">
-        <v>1.058609349741714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017035677484996</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048340052539201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03728426431848</v>
+        <v>1.020587440685942</v>
       </c>
       <c r="D7">
-        <v>1.050918166067221</v>
+        <v>1.035877350880922</v>
       </c>
       <c r="E7">
-        <v>1.037801295771726</v>
+        <v>1.023687921344213</v>
       </c>
       <c r="F7">
-        <v>1.053730525430566</v>
+        <v>1.0399656596547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057764847494789</v>
+        <v>1.049691337608047</v>
       </c>
       <c r="J7">
-        <v>1.055774278423338</v>
+        <v>1.039472882808747</v>
       </c>
       <c r="K7">
-        <v>1.060435759929898</v>
+        <v>1.045558361168283</v>
       </c>
       <c r="L7">
-        <v>1.047461078080745</v>
+        <v>1.033505710636439</v>
       </c>
       <c r="M7">
-        <v>1.063218197063122</v>
+        <v>1.049601676603213</v>
       </c>
       <c r="N7">
-        <v>1.057273598997702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016792414878397</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047828753728696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029256364029437</v>
+        <v>1.015288727009996</v>
       </c>
       <c r="D8">
-        <v>1.044441535526476</v>
+        <v>1.032115006714554</v>
       </c>
       <c r="E8">
-        <v>1.031138649705914</v>
+        <v>1.019462276610779</v>
       </c>
       <c r="F8">
-        <v>1.046253188208648</v>
+        <v>1.036139681383647</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054809860759863</v>
+        <v>1.048271575868454</v>
       </c>
       <c r="J8">
-        <v>1.050048649120128</v>
+        <v>1.036462543804346</v>
       </c>
       <c r="K8">
-        <v>1.055051375354177</v>
+        <v>1.042876845766973</v>
       </c>
       <c r="L8">
-        <v>1.041912721927184</v>
+        <v>1.030384917618444</v>
       </c>
       <c r="M8">
-        <v>1.056841063387528</v>
+        <v>1.04685139678269</v>
       </c>
       <c r="N8">
-        <v>1.051539838644142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015753518474939</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04565211028207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014279240984641</v>
+        <v>1.005554488584806</v>
       </c>
       <c r="D9">
-        <v>1.032384529608768</v>
+        <v>1.02523159374848</v>
       </c>
       <c r="E9">
-        <v>1.018753819933012</v>
+        <v>1.011744477008109</v>
       </c>
       <c r="F9">
-        <v>1.032354870453501</v>
+        <v>1.029169472806596</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049218642960475</v>
+        <v>1.045598712310248</v>
       </c>
       <c r="J9">
-        <v>1.039337646637004</v>
+        <v>1.030912616804374</v>
       </c>
       <c r="K9">
-        <v>1.044973166355513</v>
+        <v>1.03792815280132</v>
       </c>
       <c r="L9">
-        <v>1.031549784543557</v>
+        <v>1.024649839316074</v>
       </c>
       <c r="M9">
-        <v>1.044943950764079</v>
+        <v>1.041806381443864</v>
       </c>
       <c r="N9">
-        <v>1.040813625308923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013835257571077</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041659336267369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00365138411947</v>
+        <v>0.9988499715218491</v>
       </c>
       <c r="D10">
-        <v>1.023851791183694</v>
+        <v>1.020541909341281</v>
       </c>
       <c r="E10">
-        <v>1.010001283906043</v>
+        <v>1.006471075214928</v>
       </c>
       <c r="F10">
-        <v>1.022532146587727</v>
+        <v>1.024492720530928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045201168379557</v>
+        <v>1.043742750374563</v>
       </c>
       <c r="J10">
-        <v>1.031720876692055</v>
+        <v>1.027109291848253</v>
       </c>
       <c r="K10">
-        <v>1.037803346652998</v>
+        <v>1.034549920656971</v>
       </c>
       <c r="L10">
-        <v>1.024192279883784</v>
+        <v>1.020724467141435</v>
       </c>
       <c r="M10">
-        <v>1.03650615433155</v>
+        <v>1.038433398241359</v>
       </c>
       <c r="N10">
-        <v>1.033186038676996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012526638260618</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039041248831515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9988755183887938</v>
+        <v>0.9965031569547489</v>
       </c>
       <c r="D11">
-        <v>1.020024186600959</v>
+        <v>1.019142446902154</v>
       </c>
       <c r="E11">
-        <v>1.006077900316358</v>
+        <v>1.004712545264286</v>
       </c>
       <c r="F11">
-        <v>1.018128614516939</v>
+        <v>1.023518601259546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043384778479798</v>
+        <v>1.043296737407383</v>
       </c>
       <c r="J11">
-        <v>1.028295152048877</v>
+        <v>1.026022135741441</v>
       </c>
       <c r="K11">
-        <v>1.034578104443398</v>
+        <v>1.033712173668146</v>
       </c>
       <c r="L11">
-        <v>1.020886099408163</v>
+        <v>1.019546133751224</v>
       </c>
       <c r="M11">
-        <v>1.032716562509645</v>
+        <v>1.038010214478887</v>
       </c>
       <c r="N11">
-        <v>1.029755449111889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012218824640323</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039142221013669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9970733768686049</v>
+        <v>0.9958639166309834</v>
       </c>
       <c r="D12">
-        <v>1.018581005530031</v>
+        <v>1.018874920325693</v>
       </c>
       <c r="E12">
-        <v>1.004599022300635</v>
+        <v>1.004275707156121</v>
       </c>
       <c r="F12">
-        <v>1.016468658261567</v>
+        <v>1.023556617406233</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042697790166821</v>
+        <v>1.043277170615587</v>
       </c>
       <c r="J12">
-        <v>1.027002115178896</v>
+        <v>1.025844360342364</v>
       </c>
       <c r="K12">
-        <v>1.033360675603854</v>
+        <v>1.03364922571453</v>
       </c>
       <c r="L12">
-        <v>1.019638639542395</v>
+        <v>1.019321447272</v>
       </c>
       <c r="M12">
-        <v>1.031287002878751</v>
+        <v>1.03824600998772</v>
       </c>
       <c r="N12">
-        <v>1.028460575981239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012212917286654</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039654825302085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9974612522913173</v>
+        <v>0.996498184709864</v>
       </c>
       <c r="D13">
-        <v>1.018891568224033</v>
+        <v>1.019462767164994</v>
       </c>
       <c r="E13">
-        <v>1.004917248063446</v>
+        <v>1.004825932924169</v>
       </c>
       <c r="F13">
-        <v>1.016825853113229</v>
+        <v>1.024388938335994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042845721190481</v>
+        <v>1.043589142179913</v>
       </c>
       <c r="J13">
-        <v>1.027280430826988</v>
+        <v>1.026358324472207</v>
       </c>
       <c r="K13">
-        <v>1.03362271983779</v>
+        <v>1.03418353972255</v>
       </c>
       <c r="L13">
-        <v>1.019907124323223</v>
+        <v>1.019817530740341</v>
       </c>
       <c r="M13">
-        <v>1.031594666843333</v>
+        <v>1.039020823171437</v>
       </c>
       <c r="N13">
-        <v>1.028739286869475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012439867339189</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040543838226498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987271400692532</v>
+        <v>0.9975153890036788</v>
       </c>
       <c r="D14">
-        <v>1.019905339199957</v>
+        <v>1.020257776897769</v>
       </c>
       <c r="E14">
-        <v>1.00595610483122</v>
+        <v>1.005654931561748</v>
       </c>
       <c r="F14">
-        <v>1.017991908044992</v>
+        <v>1.025327161004615</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043328247414812</v>
+        <v>1.043955138296972</v>
       </c>
       <c r="J14">
-        <v>1.028188697432075</v>
+        <v>1.027027699605773</v>
       </c>
       <c r="K14">
-        <v>1.034477875765336</v>
+        <v>1.034823994303333</v>
       </c>
       <c r="L14">
-        <v>1.020783387784008</v>
+        <v>1.020487816337372</v>
       </c>
       <c r="M14">
-        <v>1.032598851428327</v>
+        <v>1.039803108453619</v>
       </c>
       <c r="N14">
-        <v>1.029648843317321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012702655526089</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041335346567269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9995032975687014</v>
+        <v>0.9980437994662563</v>
       </c>
       <c r="D15">
-        <v>1.020527069513245</v>
+        <v>1.020643765962276</v>
       </c>
       <c r="E15">
-        <v>1.006593274447456</v>
+        <v>1.006075389320575</v>
       </c>
       <c r="F15">
-        <v>1.01870708018165</v>
+        <v>1.025743377153223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043623893737263</v>
+        <v>1.044119849088005</v>
       </c>
       <c r="J15">
-        <v>1.028745540491268</v>
+        <v>1.027346602723963</v>
       </c>
       <c r="K15">
-        <v>1.035002149674126</v>
+        <v>1.035116770713367</v>
       </c>
       <c r="L15">
-        <v>1.021320670594349</v>
+        <v>1.020812339016047</v>
       </c>
       <c r="M15">
-        <v>1.033214608184035</v>
+        <v>1.040126284616463</v>
       </c>
       <c r="N15">
-        <v>1.030206477157528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012819240229528</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04162827849703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003964508549692</v>
+        <v>1.000757550519663</v>
       </c>
       <c r="D16">
-        <v>1.024102894581352</v>
+        <v>1.022516641243313</v>
       </c>
       <c r="E16">
-        <v>1.010258728646878</v>
+        <v>1.00819311954168</v>
       </c>
       <c r="F16">
-        <v>1.022821086592971</v>
+        <v>1.027592962045276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045320034821927</v>
+        <v>1.044857328846006</v>
       </c>
       <c r="J16">
-        <v>1.031945425960157</v>
+        <v>1.028864455286519</v>
       </c>
       <c r="K16">
-        <v>1.038014744935395</v>
+        <v>1.036455393113297</v>
       </c>
       <c r="L16">
-        <v>1.024409055356629</v>
+        <v>1.022379755908773</v>
       </c>
       <c r="M16">
-        <v>1.036754666974117</v>
+        <v>1.041446000753482</v>
       </c>
       <c r="N16">
-        <v>1.033410906830815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013331194756921</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042632715469205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006714964950648</v>
+        <v>1.002307693378275</v>
       </c>
       <c r="D17">
-        <v>1.026309344816713</v>
+        <v>1.023537743289268</v>
       </c>
       <c r="E17">
-        <v>1.012521218999832</v>
+        <v>1.009385904387231</v>
       </c>
       <c r="F17">
-        <v>1.025360313637239</v>
+        <v>1.028515819403486</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046362903838561</v>
+        <v>1.045229116369684</v>
       </c>
       <c r="J17">
-        <v>1.033917520381827</v>
+        <v>1.029677478272366</v>
       </c>
       <c r="K17">
-        <v>1.039871282354873</v>
+        <v>1.037145284381963</v>
       </c>
       <c r="L17">
-        <v>1.026313210813823</v>
+        <v>1.023231342028918</v>
       </c>
       <c r="M17">
-        <v>1.038937830707747</v>
+        <v>1.042041677704146</v>
       </c>
       <c r="N17">
-        <v>1.035385801852766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013585816682977</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042974714896825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008302626044306</v>
+        <v>1.002991848739498</v>
       </c>
       <c r="D18">
-        <v>1.027583616787838</v>
+        <v>1.023899875090372</v>
       </c>
       <c r="E18">
-        <v>1.013828121973331</v>
+        <v>1.009881097746922</v>
       </c>
       <c r="F18">
-        <v>1.026827031813407</v>
+        <v>1.02867802271581</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046963837279057</v>
+        <v>1.045310401806369</v>
       </c>
       <c r="J18">
-        <v>1.035055598454457</v>
+        <v>1.029942302179414</v>
       </c>
       <c r="K18">
-        <v>1.040942621574712</v>
+        <v>1.037318435059032</v>
       </c>
       <c r="L18">
-        <v>1.027412357930092</v>
+        <v>1.02353142280875</v>
       </c>
       <c r="M18">
-        <v>1.040198223589295</v>
+        <v>1.042019439615706</v>
       </c>
       <c r="N18">
-        <v>1.036525496126799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013635609420016</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042719850798984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00884121471456</v>
+        <v>1.002887073358023</v>
       </c>
       <c r="D19">
-        <v>1.028015996684141</v>
+        <v>1.023659317543677</v>
       </c>
       <c r="E19">
-        <v>1.014271619501986</v>
+        <v>1.009740787133523</v>
       </c>
       <c r="F19">
-        <v>1.0273247568248</v>
+        <v>1.028139282294358</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047167514541978</v>
+        <v>1.045128763977181</v>
       </c>
       <c r="J19">
-        <v>1.03544162261596</v>
+        <v>1.029707460284324</v>
       </c>
       <c r="K19">
-        <v>1.041305999324184</v>
+        <v>1.037019362748101</v>
       </c>
       <c r="L19">
-        <v>1.027785223545699</v>
+        <v>1.023329820692598</v>
       </c>
       <c r="M19">
-        <v>1.040625821719587</v>
+        <v>1.041427313937539</v>
       </c>
       <c r="N19">
-        <v>1.036912068486889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013502403088649</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041926726986846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006421601581545</v>
+        <v>1.000590585589278</v>
       </c>
       <c r="D20">
-        <v>1.026073938762715</v>
+        <v>1.021758982291365</v>
       </c>
       <c r="E20">
-        <v>1.012279806392741</v>
+        <v>1.007838001400874</v>
       </c>
       <c r="F20">
-        <v>1.025089376833638</v>
+        <v>1.025707727818859</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046251779831092</v>
+        <v>1.044228639011892</v>
       </c>
       <c r="J20">
-        <v>1.033707206033894</v>
+        <v>1.028098760120292</v>
       </c>
       <c r="K20">
-        <v>1.03967329688166</v>
+        <v>1.035429720483775</v>
       </c>
       <c r="L20">
-        <v>1.026110113066768</v>
+        <v>1.021744415061477</v>
       </c>
       <c r="M20">
-        <v>1.03870495396403</v>
+        <v>1.039313113972273</v>
       </c>
       <c r="N20">
-        <v>1.035175188834337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01286750439597</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039726908788436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9983551628178718</v>
+        <v>0.995433077655691</v>
       </c>
       <c r="D21">
-        <v>1.01960741331578</v>
+        <v>1.018114858350523</v>
       </c>
       <c r="E21">
-        <v>1.005650795380964</v>
+        <v>1.003778948683272</v>
       </c>
       <c r="F21">
-        <v>1.01764921908281</v>
+        <v>1.021998429805474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043186501524875</v>
+        <v>1.042747079774894</v>
       </c>
       <c r="J21">
-        <v>1.027921815333622</v>
+        <v>1.025122988783542</v>
       </c>
       <c r="K21">
-        <v>1.034226601149162</v>
+        <v>1.032760978558718</v>
       </c>
       <c r="L21">
-        <v>1.020525896755009</v>
+        <v>1.018689079665559</v>
       </c>
       <c r="M21">
-        <v>1.032303762533831</v>
+        <v>1.036574685930304</v>
       </c>
       <c r="N21">
-        <v>1.029381582215676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011831229980191</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037518794786943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931193049537546</v>
+        <v>0.9921593537819854</v>
       </c>
       <c r="D22">
-        <v>1.015416773271926</v>
+        <v>1.015822116034815</v>
       </c>
       <c r="E22">
-        <v>1.001357280935603</v>
+        <v>1.001215068909479</v>
       </c>
       <c r="F22">
-        <v>1.012829788816502</v>
+        <v>1.019695080340469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041187638134471</v>
+        <v>1.041811636987786</v>
       </c>
       <c r="J22">
-        <v>1.024164497720928</v>
+        <v>1.023247580198796</v>
       </c>
       <c r="K22">
-        <v>1.030688885036836</v>
+        <v>1.031086517631093</v>
       </c>
       <c r="L22">
-        <v>1.016901897692513</v>
+        <v>1.016762493416325</v>
       </c>
       <c r="M22">
-        <v>1.02815129882922</v>
+        <v>1.03488621666288</v>
       </c>
       <c r="N22">
-        <v>1.025618928781001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011181619476066</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036182477758915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9959112319778141</v>
+        <v>0.9939015765140555</v>
       </c>
       <c r="D23">
-        <v>1.017650680720719</v>
+        <v>1.017041711161767</v>
       </c>
       <c r="E23">
-        <v>1.003645802325563</v>
+        <v>1.002578770686032</v>
       </c>
       <c r="F23">
-        <v>1.015398693918289</v>
+        <v>1.020919920364179</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042254335733753</v>
+        <v>1.042310188420564</v>
       </c>
       <c r="J23">
-        <v>1.02616818480989</v>
+        <v>1.024245774545819</v>
       </c>
       <c r="K23">
-        <v>1.03257549206131</v>
+        <v>1.031977788557306</v>
       </c>
       <c r="L23">
-        <v>1.0188342337246</v>
+        <v>1.017787682686242</v>
       </c>
       <c r="M23">
-        <v>1.030365255390056</v>
+        <v>1.035784549352515</v>
       </c>
       <c r="N23">
-        <v>1.027625461335456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01152740032745</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036893451787791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006554211112099</v>
+        <v>1.000614057204073</v>
       </c>
       <c r="D24">
-        <v>1.026180347803938</v>
+        <v>1.021752529611723</v>
       </c>
       <c r="E24">
-        <v>1.012388929708439</v>
+        <v>1.007848982788613</v>
       </c>
       <c r="F24">
-        <v>1.025211845793511</v>
+        <v>1.025659668862462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046302014657667</v>
+        <v>1.044214953357554</v>
       </c>
       <c r="J24">
-        <v>1.033802275667843</v>
+        <v>1.028088489971439</v>
       </c>
       <c r="K24">
-        <v>1.039762793584214</v>
+        <v>1.035408119526879</v>
       </c>
       <c r="L24">
-        <v>1.026201919682336</v>
+        <v>1.021739649421931</v>
       </c>
       <c r="M24">
-        <v>1.038810221032469</v>
+        <v>1.039250673711942</v>
       </c>
       <c r="N24">
-        <v>1.035270393478069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012858011667177</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039636665366246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018257877107952</v>
+        <v>1.008120647117193</v>
       </c>
       <c r="D25">
-        <v>1.035583911866794</v>
+        <v>1.027042578448565</v>
       </c>
       <c r="E25">
-        <v>1.022038076338391</v>
+        <v>1.013773527676389</v>
       </c>
       <c r="F25">
-        <v>1.036040490001344</v>
+        <v>1.03099982235669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050712721978969</v>
+        <v>1.046310659138092</v>
       </c>
       <c r="J25">
-        <v>1.042186035499065</v>
+        <v>1.032377775970327</v>
       </c>
       <c r="K25">
-        <v>1.047653851438356</v>
+        <v>1.039235111835727</v>
       </c>
       <c r="L25">
-        <v>1.034303647876502</v>
+        <v>1.026161724872863</v>
       </c>
       <c r="M25">
-        <v>1.048103948282209</v>
+        <v>1.043135237588263</v>
       </c>
       <c r="N25">
-        <v>1.043666059209883</v>
+        <v>1.014341983994575</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042711034357406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013898556071799</v>
+        <v>1.013062384682988</v>
       </c>
       <c r="D2">
-        <v>1.031129697633498</v>
+        <v>1.029775476237533</v>
       </c>
       <c r="E2">
-        <v>1.018356552932998</v>
+        <v>1.017658388165728</v>
       </c>
       <c r="F2">
-        <v>1.035139685067811</v>
+        <v>1.034187269125727</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04789469777134</v>
+        <v>1.047309187332015</v>
       </c>
       <c r="J2">
-        <v>1.035671364249485</v>
+        <v>1.034859299880731</v>
       </c>
       <c r="K2">
-        <v>1.042171734679089</v>
+        <v>1.040835009762308</v>
       </c>
       <c r="L2">
-        <v>1.029565940861209</v>
+        <v>1.02887707530748</v>
       </c>
       <c r="M2">
-        <v>1.046130248762071</v>
+        <v>1.045190013128503</v>
       </c>
       <c r="N2">
-        <v>1.015480269775552</v>
+        <v>1.01623333478675</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045081373794953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044337244644321</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02280497581514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017980981942486</v>
+        <v>1.016908135650245</v>
       </c>
       <c r="D3">
-        <v>1.03402530379589</v>
+        <v>1.032392996391222</v>
       </c>
       <c r="E3">
-        <v>1.021607087218336</v>
+        <v>1.020699895593131</v>
       </c>
       <c r="F3">
-        <v>1.038080757025857</v>
+        <v>1.036922409957341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048996377436949</v>
+        <v>1.048265411164361</v>
       </c>
       <c r="J3">
-        <v>1.037993186838417</v>
+        <v>1.03694824521585</v>
       </c>
       <c r="K3">
-        <v>1.044240575455729</v>
+        <v>1.042627523275957</v>
       </c>
       <c r="L3">
-        <v>1.031970768821767</v>
+        <v>1.031074594870775</v>
       </c>
       <c r="M3">
-        <v>1.048248513447873</v>
+        <v>1.047103691107135</v>
       </c>
       <c r="N3">
-        <v>1.016281920371704</v>
+        <v>1.016804596378367</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046757825787522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04585178288296</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023191734485947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020572989328335</v>
+        <v>1.019351753703977</v>
       </c>
       <c r="D4">
-        <v>1.03586707524776</v>
+        <v>1.03405948741559</v>
       </c>
       <c r="E4">
-        <v>1.023676372261395</v>
+        <v>1.022637987340397</v>
       </c>
       <c r="F4">
-        <v>1.039955193281857</v>
+        <v>1.038667274524705</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049687503560559</v>
+        <v>1.048864845839624</v>
       </c>
       <c r="J4">
-        <v>1.039464685005645</v>
+        <v>1.038273067297532</v>
       </c>
       <c r="K4">
-        <v>1.045551061984947</v>
+        <v>1.043763513972151</v>
       </c>
       <c r="L4">
-        <v>1.033497201495761</v>
+        <v>1.032470658600769</v>
       </c>
       <c r="M4">
-        <v>1.049594172699229</v>
+        <v>1.048320386064989</v>
       </c>
       <c r="N4">
-        <v>1.016789587564078</v>
+        <v>1.017166700991463</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047822814951378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046814707654595</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023434256098811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021651164431742</v>
+        <v>1.02036863000757</v>
       </c>
       <c r="D5">
-        <v>1.036633926441916</v>
+        <v>1.034753721997814</v>
       </c>
       <c r="E5">
-        <v>1.02453838842023</v>
+        <v>1.023445781088676</v>
       </c>
       <c r="F5">
-        <v>1.040736543831019</v>
+        <v>1.039394996964015</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049972947186704</v>
+        <v>1.049112302040941</v>
       </c>
       <c r="J5">
-        <v>1.040076098644007</v>
+        <v>1.038823741092966</v>
       </c>
       <c r="K5">
-        <v>1.046095402681648</v>
+        <v>1.044235489568568</v>
       </c>
       <c r="L5">
-        <v>1.034132000670097</v>
+        <v>1.033051518520814</v>
       </c>
       <c r="M5">
-        <v>1.050154055951257</v>
+        <v>1.04882683847882</v>
       </c>
       <c r="N5">
-        <v>1.017000426494193</v>
+        <v>1.017317164037492</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048265920431433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047215527203157</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023534391626805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021831530540891</v>
+        <v>1.020538765828598</v>
       </c>
       <c r="D6">
-        <v>1.036762254193413</v>
+        <v>1.03486991867466</v>
       </c>
       <c r="E6">
-        <v>1.024682667462159</v>
+        <v>1.023581009407752</v>
       </c>
       <c r="F6">
-        <v>1.040867350794466</v>
+        <v>1.039516847972193</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050020577773751</v>
+        <v>1.049153586581807</v>
       </c>
       <c r="J6">
-        <v>1.040178340533666</v>
+        <v>1.038915837555056</v>
       </c>
       <c r="K6">
-        <v>1.046186418128884</v>
+        <v>1.044314411754171</v>
       </c>
       <c r="L6">
-        <v>1.034238186106136</v>
+        <v>1.033148697211825</v>
       </c>
       <c r="M6">
-        <v>1.050247725160802</v>
+        <v>1.048911581584147</v>
       </c>
       <c r="N6">
-        <v>1.017035677484996</v>
+        <v>1.017342325014656</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048340052539201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047282595068826</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023551098961949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020587440685942</v>
+        <v>1.019374891839164</v>
       </c>
       <c r="D7">
-        <v>1.035877350880922</v>
+        <v>1.034076112060247</v>
       </c>
       <c r="E7">
-        <v>1.023687921344213</v>
+        <v>1.022657486351739</v>
       </c>
       <c r="F7">
-        <v>1.0399656596547</v>
+        <v>1.038683067555261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049691337608047</v>
+        <v>1.048873028466053</v>
       </c>
       <c r="J7">
-        <v>1.039472882808747</v>
+        <v>1.03828972904165</v>
       </c>
       <c r="K7">
-        <v>1.045558361168283</v>
+        <v>1.043777084490841</v>
       </c>
       <c r="L7">
-        <v>1.033505710636439</v>
+        <v>1.032487022641493</v>
       </c>
       <c r="M7">
-        <v>1.049601676603213</v>
+        <v>1.048333153060448</v>
       </c>
       <c r="N7">
-        <v>1.016792414878397</v>
+        <v>1.017197397203625</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047828753728696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046824811787917</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.0234379525582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015288727009996</v>
+        <v>1.01440094070117</v>
       </c>
       <c r="D8">
-        <v>1.032115006714554</v>
+        <v>1.030688546802982</v>
       </c>
       <c r="E8">
-        <v>1.019462276610779</v>
+        <v>1.018719488332414</v>
       </c>
       <c r="F8">
-        <v>1.036139681383647</v>
+        <v>1.035135641548042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048271575868454</v>
+        <v>1.047651488483413</v>
       </c>
       <c r="J8">
-        <v>1.036462543804346</v>
+        <v>1.035599492714989</v>
       </c>
       <c r="K8">
-        <v>1.042876845766973</v>
+        <v>1.041468268277603</v>
       </c>
       <c r="L8">
-        <v>1.030384917618444</v>
+        <v>1.029651724635152</v>
       </c>
       <c r="M8">
-        <v>1.04685139678269</v>
+        <v>1.045859815896505</v>
       </c>
       <c r="N8">
-        <v>1.015753518474939</v>
+        <v>1.016515373668774</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04565211028207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044867345631645</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022944664962995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005554488584806</v>
+        <v>1.005247561520617</v>
       </c>
       <c r="D9">
-        <v>1.02523159374848</v>
+        <v>1.024479897054758</v>
       </c>
       <c r="E9">
-        <v>1.011744477008109</v>
+        <v>1.011513832417281</v>
       </c>
       <c r="F9">
-        <v>1.029169472806596</v>
+        <v>1.028666872455854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045598712310248</v>
+        <v>1.045331984967815</v>
       </c>
       <c r="J9">
-        <v>1.030912616804374</v>
+        <v>1.030616366069171</v>
       </c>
       <c r="K9">
-        <v>1.03792815280132</v>
+        <v>1.037187909158441</v>
       </c>
       <c r="L9">
-        <v>1.024649839316074</v>
+        <v>1.024422827465944</v>
       </c>
       <c r="M9">
-        <v>1.041806381443864</v>
+        <v>1.0413113620282</v>
       </c>
       <c r="N9">
-        <v>1.013835257571077</v>
+        <v>1.015161498252879</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041659336267369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04126756211269</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022007153990635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9988499715218491</v>
+        <v>0.9989919358348118</v>
       </c>
       <c r="D10">
-        <v>1.020541909341281</v>
+        <v>1.020289814095923</v>
       </c>
       <c r="E10">
-        <v>1.006471075214928</v>
+        <v>1.006635967821422</v>
       </c>
       <c r="F10">
-        <v>1.024492720530928</v>
+        <v>1.024365503088685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043742750374563</v>
+        <v>1.043741406889101</v>
       </c>
       <c r="J10">
-        <v>1.027109291848253</v>
+        <v>1.027245606403291</v>
       </c>
       <c r="K10">
-        <v>1.034549920656971</v>
+        <v>1.034302144738528</v>
       </c>
       <c r="L10">
-        <v>1.020724467141435</v>
+        <v>1.020886432651781</v>
       </c>
       <c r="M10">
-        <v>1.038433398241359</v>
+        <v>1.038308338517232</v>
       </c>
       <c r="N10">
-        <v>1.012526638260618</v>
+        <v>1.014362552790661</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039041248831515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038942278399724</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021372721500933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965031569547489</v>
+        <v>0.9968167279700373</v>
       </c>
       <c r="D11">
-        <v>1.019142446902154</v>
+        <v>1.019062237452237</v>
       </c>
       <c r="E11">
-        <v>1.004712545264286</v>
+        <v>1.005026510018062</v>
       </c>
       <c r="F11">
-        <v>1.023518601259546</v>
+        <v>1.02352395099758</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043296737407383</v>
+        <v>1.04338699853645</v>
       </c>
       <c r="J11">
-        <v>1.026022135741441</v>
+        <v>1.026322537028062</v>
       </c>
       <c r="K11">
-        <v>1.033712173668146</v>
+        <v>1.033633404076485</v>
       </c>
       <c r="L11">
-        <v>1.019546133751224</v>
+        <v>1.019854252220151</v>
       </c>
       <c r="M11">
-        <v>1.038010214478887</v>
+        <v>1.038015469255495</v>
       </c>
       <c r="N11">
-        <v>1.012218824640323</v>
+        <v>1.014387797380089</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039142221013669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039146377478692</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021286226971571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9958639166309834</v>
+        <v>0.9962081268102156</v>
       </c>
       <c r="D12">
-        <v>1.018874920325693</v>
+        <v>1.018821846977733</v>
       </c>
       <c r="E12">
-        <v>1.004275707156121</v>
+        <v>1.00461369623551</v>
       </c>
       <c r="F12">
-        <v>1.023556617406233</v>
+        <v>1.023583639216207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043277170615587</v>
+        <v>1.043379174298941</v>
       </c>
       <c r="J12">
-        <v>1.025844360342364</v>
+        <v>1.026173837030101</v>
       </c>
       <c r="K12">
-        <v>1.03364922571453</v>
+        <v>1.033597120790712</v>
       </c>
       <c r="L12">
-        <v>1.019321447272</v>
+        <v>1.01965303570759</v>
       </c>
       <c r="M12">
-        <v>1.03824600998772</v>
+        <v>1.038272544628716</v>
       </c>
       <c r="N12">
-        <v>1.012212917286654</v>
+        <v>1.014487089064232</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039654825302085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039675806791875</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021323933339219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.996498184709864</v>
+        <v>0.996752533016365</v>
       </c>
       <c r="D13">
-        <v>1.019462767164994</v>
+        <v>1.019316353051693</v>
       </c>
       <c r="E13">
-        <v>1.004825932924169</v>
+        <v>1.005080898032941</v>
       </c>
       <c r="F13">
-        <v>1.024388938335994</v>
+        <v>1.02434491668559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043589142179913</v>
+        <v>1.043635455598152</v>
       </c>
       <c r="J13">
-        <v>1.026358324472207</v>
+        <v>1.026601843861998</v>
       </c>
       <c r="K13">
-        <v>1.03418353972255</v>
+        <v>1.03403978460652</v>
       </c>
       <c r="L13">
-        <v>1.019817530740341</v>
+        <v>1.020067690036632</v>
       </c>
       <c r="M13">
-        <v>1.039020823171437</v>
+        <v>1.038977590928654</v>
       </c>
       <c r="N13">
-        <v>1.012439867339189</v>
+        <v>1.01461325572064</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040543838226498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040509662169335</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021458720615025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9975153890036788</v>
+        <v>0.9976538855994271</v>
       </c>
       <c r="D14">
-        <v>1.020257776897769</v>
+        <v>1.019993101432736</v>
       </c>
       <c r="E14">
-        <v>1.005654931561748</v>
+        <v>1.005805013572715</v>
       </c>
       <c r="F14">
-        <v>1.025327161004615</v>
+        <v>1.025192750463177</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043955138296972</v>
+        <v>1.043933127935304</v>
       </c>
       <c r="J14">
-        <v>1.027027699605773</v>
+        <v>1.027160386497027</v>
       </c>
       <c r="K14">
-        <v>1.034823994303333</v>
+        <v>1.034564063902824</v>
       </c>
       <c r="L14">
-        <v>1.020487816337372</v>
+        <v>1.020635106275889</v>
       </c>
       <c r="M14">
-        <v>1.039803108453619</v>
+        <v>1.039671076401382</v>
       </c>
       <c r="N14">
-        <v>1.012702655526089</v>
+        <v>1.014714301749804</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041335346567269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0412309863231</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021596413908626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9980437994662563</v>
+        <v>0.9981284898260017</v>
       </c>
       <c r="D15">
-        <v>1.020643765962276</v>
+        <v>1.020324403845507</v>
       </c>
       <c r="E15">
-        <v>1.006075389320575</v>
+        <v>1.006177347677605</v>
       </c>
       <c r="F15">
-        <v>1.025743377153223</v>
+        <v>1.025567110031272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044119849088005</v>
+        <v>1.044066923049733</v>
       </c>
       <c r="J15">
-        <v>1.027346602723963</v>
+        <v>1.027427772061873</v>
       </c>
       <c r="K15">
-        <v>1.035116770713367</v>
+        <v>1.034803089815322</v>
       </c>
       <c r="L15">
-        <v>1.020812339016047</v>
+        <v>1.020912415509979</v>
       </c>
       <c r="M15">
-        <v>1.040126284616463</v>
+        <v>1.039953112316282</v>
       </c>
       <c r="N15">
-        <v>1.012819240229528</v>
+        <v>1.01474931249007</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04162827849703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041491403934207</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021653353793071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,93 +1223,111 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000757550519663</v>
+        <v>1.000604907121801</v>
       </c>
       <c r="D16">
-        <v>1.022516641243313</v>
+        <v>1.021953997077616</v>
       </c>
       <c r="E16">
-        <v>1.00819311954168</v>
+        <v>1.00808568110137</v>
       </c>
       <c r="F16">
-        <v>1.027592962045276</v>
+        <v>1.027230732344125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044857328846006</v>
+        <v>1.044670920874302</v>
       </c>
       <c r="J16">
-        <v>1.028864455286519</v>
+        <v>1.028717837078681</v>
       </c>
       <c r="K16">
-        <v>1.036455393113297</v>
+        <v>1.035902316825295</v>
       </c>
       <c r="L16">
-        <v>1.022379755908773</v>
+        <v>1.022274211319349</v>
       </c>
       <c r="M16">
-        <v>1.041446000753482</v>
+        <v>1.041089851075627</v>
       </c>
       <c r="N16">
-        <v>1.013331194756921</v>
+        <v>1.01488452839533</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042632715469205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.042351208398249</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02188641485423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.002307693378275</v>
+        <v>1.002044668366168</v>
       </c>
       <c r="D17">
-        <v>1.023537743289268</v>
+        <v>1.022858679969571</v>
       </c>
       <c r="E17">
-        <v>1.009385904387231</v>
+        <v>1.009182414011434</v>
       </c>
       <c r="F17">
-        <v>1.028515819403486</v>
+        <v>1.028065088635327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045229116369684</v>
+        <v>1.044981237434323</v>
       </c>
       <c r="J17">
-        <v>1.029677478272366</v>
+        <v>1.029424499108101</v>
       </c>
       <c r="K17">
-        <v>1.037145284381963</v>
+        <v>1.036477442790448</v>
       </c>
       <c r="L17">
-        <v>1.023231342028918</v>
+        <v>1.023031335260895</v>
       </c>
       <c r="M17">
-        <v>1.042041677704146</v>
+        <v>1.041598300898453</v>
       </c>
       <c r="N17">
-        <v>1.013585816682977</v>
+        <v>1.014964960437883</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042974714896825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04262422709644</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021994298516983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002991848739498</v>
+        <v>1.002705134365799</v>
       </c>
       <c r="D18">
-        <v>1.023899875090372</v>
+        <v>1.023194164181208</v>
       </c>
       <c r="E18">
-        <v>1.009881097746922</v>
+        <v>1.009659042821877</v>
       </c>
       <c r="F18">
-        <v>1.02867802271581</v>
+        <v>1.028207066149392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045310401806369</v>
+        <v>1.0450514850025</v>
       </c>
       <c r="J18">
-        <v>1.029942302179414</v>
+        <v>1.029666333085621</v>
       </c>
       <c r="K18">
-        <v>1.037318435059032</v>
+        <v>1.036624196278105</v>
       </c>
       <c r="L18">
-        <v>1.02353142280875</v>
+        <v>1.023313105778966</v>
       </c>
       <c r="M18">
-        <v>1.042019439615706</v>
+        <v>1.041556045771652</v>
       </c>
       <c r="N18">
-        <v>1.013635609420016</v>
+        <v>1.014961568928088</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042719850798984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.042353463469938</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021994997670968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002887073358023</v>
+        <v>1.002646956047223</v>
       </c>
       <c r="D19">
-        <v>1.023659317543677</v>
+        <v>1.023002135013776</v>
       </c>
       <c r="E19">
-        <v>1.009740787133523</v>
+        <v>1.009562814745107</v>
       </c>
       <c r="F19">
-        <v>1.028139282294358</v>
+        <v>1.027704885523132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045128763977181</v>
+        <v>1.04490032056324</v>
       </c>
       <c r="J19">
-        <v>1.029707460284324</v>
+        <v>1.02947629138114</v>
       </c>
       <c r="K19">
-        <v>1.037019362748101</v>
+        <v>1.036372812260401</v>
       </c>
       <c r="L19">
-        <v>1.023329820692598</v>
+        <v>1.023154829009385</v>
       </c>
       <c r="M19">
-        <v>1.041427313937539</v>
+        <v>1.040999864668457</v>
       </c>
       <c r="N19">
-        <v>1.013502403088649</v>
+        <v>1.014862783378639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041926726986846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.041588649538651</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021897127678963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000590585589278</v>
+        <v>1.000587930472662</v>
       </c>
       <c r="D20">
-        <v>1.021758982291365</v>
+        <v>1.021355278371973</v>
       </c>
       <c r="E20">
-        <v>1.007838001400874</v>
+        <v>1.00787453584107</v>
       </c>
       <c r="F20">
-        <v>1.025707727818859</v>
+        <v>1.025464973608271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044228639011892</v>
+        <v>1.044143952498235</v>
       </c>
       <c r="J20">
-        <v>1.028098760120292</v>
+        <v>1.028096207183872</v>
       </c>
       <c r="K20">
-        <v>1.035429720483775</v>
+        <v>1.035032734567452</v>
       </c>
       <c r="L20">
-        <v>1.021744415061477</v>
+        <v>1.021780319973445</v>
       </c>
       <c r="M20">
-        <v>1.039313113972273</v>
+        <v>1.039074358682867</v>
       </c>
       <c r="N20">
-        <v>1.01286750439597</v>
+        <v>1.014494416320727</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039726908788436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.039537959103474</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021532192655589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.995433077655691</v>
+        <v>0.9959228637632692</v>
       </c>
       <c r="D21">
-        <v>1.018114858350523</v>
+        <v>1.018213208369472</v>
       </c>
       <c r="E21">
-        <v>1.003778948683272</v>
+        <v>1.004255089513518</v>
       </c>
       <c r="F21">
-        <v>1.021998429805474</v>
+        <v>1.022140970110487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042747079774894</v>
+        <v>1.042944243753743</v>
       </c>
       <c r="J21">
-        <v>1.025122988783542</v>
+        <v>1.025592042973646</v>
       </c>
       <c r="K21">
-        <v>1.032760978558718</v>
+        <v>1.032857550743373</v>
       </c>
       <c r="L21">
-        <v>1.018689079665559</v>
+        <v>1.019156293861385</v>
       </c>
       <c r="M21">
-        <v>1.036574685930304</v>
+        <v>1.036714675103094</v>
       </c>
       <c r="N21">
-        <v>1.011831229980191</v>
+        <v>1.0142297154859</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037518794786943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.037629587283333</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021051129654368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9921593537819854</v>
+        <v>0.9929610710126147</v>
       </c>
       <c r="D22">
-        <v>1.015822116034815</v>
+        <v>1.01623830556359</v>
       </c>
       <c r="E22">
-        <v>1.001215068909479</v>
+        <v>1.001969644047784</v>
       </c>
       <c r="F22">
-        <v>1.019695080340469</v>
+        <v>1.020081794207437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041811636987786</v>
+        <v>1.042187174236428</v>
       </c>
       <c r="J22">
-        <v>1.023247580198796</v>
+        <v>1.024013349045682</v>
       </c>
       <c r="K22">
-        <v>1.031086517631093</v>
+        <v>1.031494799039445</v>
       </c>
       <c r="L22">
-        <v>1.016762493416325</v>
+        <v>1.017502182626741</v>
       </c>
       <c r="M22">
-        <v>1.03488621666288</v>
+        <v>1.035265654922883</v>
       </c>
       <c r="N22">
-        <v>1.011181619476066</v>
+        <v>1.014060960908431</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036182477758915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.036482779450608</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020751252113699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9939015765140555</v>
+        <v>0.9945211989881786</v>
       </c>
       <c r="D23">
-        <v>1.017041711161767</v>
+        <v>1.01727592666066</v>
       </c>
       <c r="E23">
-        <v>1.002578770686032</v>
+        <v>1.00317021955814</v>
       </c>
       <c r="F23">
-        <v>1.020919920364179</v>
+        <v>1.021166150794131</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042310188420564</v>
+        <v>1.042582204315632</v>
       </c>
       <c r="J23">
-        <v>1.024245774545819</v>
+        <v>1.024838443637443</v>
       </c>
       <c r="K23">
-        <v>1.031977788557306</v>
+        <v>1.032207668942964</v>
       </c>
       <c r="L23">
-        <v>1.017787682686242</v>
+        <v>1.018367772245086</v>
       </c>
       <c r="M23">
-        <v>1.035784549352515</v>
+        <v>1.036026267328759</v>
       </c>
       <c r="N23">
-        <v>1.01152740032745</v>
+        <v>1.014106694288954</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036893451787791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.037084756297075</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020906724522778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000614057204073</v>
+        <v>1.000614205958833</v>
       </c>
       <c r="D24">
-        <v>1.021752529611723</v>
+        <v>1.021351822532313</v>
       </c>
       <c r="E24">
-        <v>1.007848982788613</v>
+        <v>1.00788831999771</v>
       </c>
       <c r="F24">
-        <v>1.025659668862462</v>
+        <v>1.025419158486828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044214953357554</v>
+        <v>1.044132343574307</v>
       </c>
       <c r="J24">
-        <v>1.028088489971439</v>
+        <v>1.028088633009923</v>
       </c>
       <c r="K24">
-        <v>1.035408119526879</v>
+        <v>1.035014072119419</v>
       </c>
       <c r="L24">
-        <v>1.021739649421931</v>
+        <v>1.021778309701545</v>
       </c>
       <c r="M24">
-        <v>1.039250673711942</v>
+        <v>1.039014120689707</v>
       </c>
       <c r="N24">
-        <v>1.012858011667177</v>
+        <v>1.014484314768908</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039636665366246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.039449449260582</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021522633335423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008120647117193</v>
+        <v>1.0076468681401</v>
       </c>
       <c r="D25">
-        <v>1.027042578448565</v>
+        <v>1.026102570125442</v>
       </c>
       <c r="E25">
-        <v>1.013773527676389</v>
+        <v>1.01339556624504</v>
       </c>
       <c r="F25">
-        <v>1.03099982235669</v>
+        <v>1.030356293770102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046310659138092</v>
+        <v>1.045944067066064</v>
       </c>
       <c r="J25">
-        <v>1.032377775970327</v>
+        <v>1.031919596986235</v>
       </c>
       <c r="K25">
-        <v>1.039235111835727</v>
+        <v>1.038308753539725</v>
       </c>
       <c r="L25">
-        <v>1.026161724872863</v>
+        <v>1.025789432330637</v>
       </c>
       <c r="M25">
-        <v>1.043135237588263</v>
+        <v>1.042500959741255</v>
       </c>
       <c r="N25">
-        <v>1.014341983994575</v>
+        <v>1.015484857155946</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042711034357406</v>
+        <v>1.042209047328742</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022253971345828</v>
       </c>
     </row>
   </sheetData>
